--- a/prix/hammerite.xlsx
+++ b/prix/hammerite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D192C2BF-2775-48DD-B1E8-DB1DEF942D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24F2453-AB92-4611-A315-E96CD6B872E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="260">
   <si>
     <t>path</t>
   </si>
@@ -573,6 +573,249 @@
   </si>
   <si>
     <t>Hammerite ultima argent 1/4l</t>
+  </si>
+  <si>
+    <t>0.25L brillant blanc</t>
+  </si>
+  <si>
+    <t>0.25L brillant rouge</t>
+  </si>
+  <si>
+    <t>0.25L brillant noir</t>
+  </si>
+  <si>
+    <t>0.25L brillant gris argent</t>
+  </si>
+  <si>
+    <t>0.25L brillant blanc cassé</t>
+  </si>
+  <si>
+    <t>0.25L brillant vert foncé</t>
+  </si>
+  <si>
+    <t>0.25L brillant bleu</t>
+  </si>
+  <si>
+    <t>0.25L brillant bleu foncé</t>
+  </si>
+  <si>
+    <t>0.25L brillant brun</t>
+  </si>
+  <si>
+    <t>0.25L brillant gris</t>
+  </si>
+  <si>
+    <t>0.25L brillant or</t>
+  </si>
+  <si>
+    <t>0.75L brillant blanc</t>
+  </si>
+  <si>
+    <t>0.75L brillant rouge</t>
+  </si>
+  <si>
+    <t>0.75L brillant noir</t>
+  </si>
+  <si>
+    <t>0.75L brillant gris argent</t>
+  </si>
+  <si>
+    <t>0.75L brillant vert foncé</t>
+  </si>
+  <si>
+    <t>0.75L brillant blanc cassé</t>
+  </si>
+  <si>
+    <t>0.75L brillant bleu foncé</t>
+  </si>
+  <si>
+    <t>0.75L brillant brun</t>
+  </si>
+  <si>
+    <t>0.75L brillant gris</t>
+  </si>
+  <si>
+    <t>0.25L satin blanc</t>
+  </si>
+  <si>
+    <t>0.25L satin rouge</t>
+  </si>
+  <si>
+    <t>0.25L satin noir</t>
+  </si>
+  <si>
+    <t>0.25L satin gris</t>
+  </si>
+  <si>
+    <t>0.25L satin vert</t>
+  </si>
+  <si>
+    <t>0.25L satin bleu</t>
+  </si>
+  <si>
+    <t>0.25L satin bleu foncé</t>
+  </si>
+  <si>
+    <t>0.75L satin blanc</t>
+  </si>
+  <si>
+    <t>0.75L satin rouge</t>
+  </si>
+  <si>
+    <t>0.75L satin noir</t>
+  </si>
+  <si>
+    <t>0.75L satin bleu</t>
+  </si>
+  <si>
+    <t>0.75L satin bleu foncé</t>
+  </si>
+  <si>
+    <t>0.75L satin gris</t>
+  </si>
+  <si>
+    <t>0.75L satin vert</t>
+  </si>
+  <si>
+    <t>0.25L martelé noir</t>
+  </si>
+  <si>
+    <t>0.25L martelé gris</t>
+  </si>
+  <si>
+    <t>0.25L martelé gris argent</t>
+  </si>
+  <si>
+    <t>0.25L martelé gris foncé</t>
+  </si>
+  <si>
+    <t>0.25L martelé blanc</t>
+  </si>
+  <si>
+    <t>0.25L martelé vert foncé</t>
+  </si>
+  <si>
+    <t>0.25L martelé bleu foncé</t>
+  </si>
+  <si>
+    <t>0.25L martelé brun</t>
+  </si>
+  <si>
+    <t>0.25L martelé cuivre</t>
+  </si>
+  <si>
+    <t>0.75L martelé noir</t>
+  </si>
+  <si>
+    <t>0.75L martelé blanc</t>
+  </si>
+  <si>
+    <t>0.75L martelé gris argent</t>
+  </si>
+  <si>
+    <t>0.75L martelé gris foncé</t>
+  </si>
+  <si>
+    <t>0.75L martelé vert foncé</t>
+  </si>
+  <si>
+    <t>0.75L martelé bleu foncé</t>
+  </si>
+  <si>
+    <t>0.75L martelé cuivre</t>
+  </si>
+  <si>
+    <t>0.75L martelé bleu clair</t>
+  </si>
+  <si>
+    <t>0.75L martelé brun</t>
+  </si>
+  <si>
+    <t>1L diluant nettoie pinceau</t>
+  </si>
+  <si>
+    <t>2.5L martelé gris foncé</t>
+  </si>
+  <si>
+    <t>0.5L primer non ferreux</t>
+  </si>
+  <si>
+    <t>0.25L primer beige</t>
+  </si>
+  <si>
+    <t>0.5L primer beige</t>
+  </si>
+  <si>
+    <t>0.25L convertisseur rouille</t>
+  </si>
+  <si>
+    <t>0.5L dégraissant métal</t>
+  </si>
+  <si>
+    <t>décapant rouille gel</t>
+  </si>
+  <si>
+    <t>0.25L spray 600°</t>
+  </si>
+  <si>
+    <t>spray radiateur blanc</t>
+  </si>
+  <si>
+    <t>spray résistance chaleur noir</t>
+  </si>
+  <si>
+    <t>1L structuré mat noir promo</t>
+  </si>
+  <si>
+    <t>0.75L structuré noir ardoise</t>
+  </si>
+  <si>
+    <t>0.75L structuré gris argent</t>
+  </si>
+  <si>
+    <t>0.25L structuré mat gris</t>
+  </si>
+  <si>
+    <t>0.25L structuré noir</t>
+  </si>
+  <si>
+    <t>0.75L gloss noir</t>
+  </si>
+  <si>
+    <t>0.75L gloss blanc</t>
+  </si>
+  <si>
+    <t>0.75L gloss vert</t>
+  </si>
+  <si>
+    <t>0.75L gloss gris</t>
+  </si>
+  <si>
+    <t>0.75L gloss anthracite</t>
+  </si>
+  <si>
+    <t>0.75L mat blanc</t>
+  </si>
+  <si>
+    <t>0.75L mat noir</t>
+  </si>
+  <si>
+    <t>0.25L gloss noir</t>
+  </si>
+  <si>
+    <t>0.25L gloss blanc</t>
+  </si>
+  <si>
+    <t>0.25L or</t>
+  </si>
+  <si>
+    <t>0.25L argent</t>
+  </si>
+  <si>
+    <t>0.5L laque satin + Teinte</t>
+  </si>
+  <si>
+    <t>1L laque satin + Teinte</t>
   </si>
 </sst>
 </file>
@@ -997,15 +1240,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -1038,6 +1281,9 @@
       <c r="B2" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="D2" s="11">
         <v>20.5</v>
       </c>
@@ -1053,6 +1299,9 @@
       <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D3" s="11">
         <v>20.5</v>
       </c>
@@ -1068,6 +1317,9 @@
       <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D4" s="11">
         <v>22</v>
       </c>
@@ -1083,6 +1335,9 @@
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D5" s="11">
         <v>22</v>
       </c>
@@ -1098,6 +1353,9 @@
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="D6" s="11">
         <v>20.5</v>
       </c>
@@ -1113,6 +1371,9 @@
       <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D7" s="11">
         <v>20.5</v>
       </c>
@@ -1128,6 +1389,9 @@
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D8" s="11">
         <v>20.5</v>
       </c>
@@ -1143,6 +1407,9 @@
       <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D9" s="11">
         <v>20.5</v>
       </c>
@@ -1158,6 +1425,9 @@
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D10" s="11">
         <v>20.5</v>
       </c>
@@ -1173,6 +1443,9 @@
       <c r="B11" s="10" t="s">
         <v>103</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D11" s="11">
         <v>20.5</v>
       </c>
@@ -1188,6 +1461,9 @@
       <c r="B12" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D12" s="11">
         <v>20.5</v>
       </c>
@@ -1203,6 +1479,9 @@
       <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="D13" s="11">
         <v>51.5</v>
       </c>
@@ -1218,6 +1497,9 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D14" s="11">
         <v>51.5</v>
       </c>
@@ -1233,6 +1515,9 @@
       <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D15" s="11">
         <v>55</v>
       </c>
@@ -1248,6 +1533,9 @@
       <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D16" s="11">
         <v>54.980000000000004</v>
       </c>
@@ -1263,6 +1551,9 @@
       <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" s="11">
         <v>51.5</v>
       </c>
@@ -1278,6 +1569,9 @@
       <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" s="11">
         <v>51.5</v>
       </c>
@@ -1293,6 +1587,9 @@
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="D19" s="11">
         <v>51.5</v>
       </c>
@@ -1308,7 +1605,9 @@
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" s="11">
         <v>51.5</v>
       </c>
@@ -1324,7 +1623,9 @@
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" s="11">
         <v>51.5</v>
       </c>
@@ -1340,6 +1641,9 @@
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" s="11">
         <v>22</v>
       </c>
@@ -1355,6 +1659,9 @@
       <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D23" s="11">
         <v>22</v>
       </c>
@@ -1370,6 +1677,9 @@
       <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" s="11">
         <v>22</v>
       </c>
@@ -1385,6 +1695,9 @@
       <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="D25" s="11">
         <v>22</v>
       </c>
@@ -1400,6 +1713,9 @@
       <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D26" s="11">
         <v>22</v>
       </c>
@@ -1415,6 +1731,9 @@
       <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" s="11">
         <v>22</v>
       </c>
@@ -1430,6 +1749,9 @@
       <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D28" s="11">
         <v>22</v>
       </c>
@@ -1445,6 +1767,9 @@
       <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="D29" s="11">
         <v>55</v>
       </c>
@@ -1460,6 +1785,9 @@
       <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D30" s="11">
         <v>51.5</v>
       </c>
@@ -1475,6 +1803,9 @@
       <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D31" s="11">
         <v>55</v>
       </c>
@@ -1490,6 +1821,9 @@
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="D32" s="11">
         <v>51.5</v>
       </c>
@@ -1505,6 +1839,9 @@
       <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="D33" s="11">
         <v>51.5</v>
       </c>
@@ -1520,6 +1857,9 @@
       <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="D34" s="11">
         <v>51.5</v>
       </c>
@@ -1535,6 +1875,9 @@
       <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="D35" s="11">
         <v>51.5</v>
       </c>
@@ -1550,6 +1893,9 @@
       <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D36" s="11">
         <v>22</v>
       </c>
@@ -1565,6 +1911,9 @@
       <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="D37" s="11">
         <v>19.920000000000002</v>
       </c>
@@ -1580,6 +1929,9 @@
       <c r="B38" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D38" s="11">
         <v>29.28</v>
       </c>
@@ -1595,6 +1947,9 @@
       <c r="B39" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D39" s="11">
         <v>20.5</v>
       </c>
@@ -1610,6 +1965,9 @@
       <c r="B40" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="D40" s="11">
         <v>22</v>
       </c>
@@ -1625,6 +1983,9 @@
       <c r="B41" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D41" s="11">
         <v>22</v>
       </c>
@@ -1640,6 +2001,9 @@
       <c r="B42" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D42" s="11">
         <v>20.5</v>
       </c>
@@ -1655,6 +2019,9 @@
       <c r="B43" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D43" s="11">
         <v>29.25</v>
       </c>
@@ -1670,6 +2037,9 @@
       <c r="B44" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="D44" s="11">
         <v>20.47</v>
       </c>
@@ -1685,6 +2055,9 @@
       <c r="B45" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D45" s="11">
         <v>22</v>
       </c>
@@ -1700,6 +2073,9 @@
       <c r="B46" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D46" s="11">
         <v>54.56</v>
       </c>
@@ -1715,6 +2091,9 @@
       <c r="B47" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D47" s="11">
         <v>55</v>
       </c>
@@ -1730,6 +2109,9 @@
       <c r="B48" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D48" s="11">
         <v>54.56</v>
       </c>
@@ -1745,6 +2127,9 @@
       <c r="B49" s="10" t="s">
         <v>140</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="D49" s="11">
         <v>51.5</v>
       </c>
@@ -1760,6 +2145,9 @@
       <c r="B50" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D50" s="11">
         <v>19.920000000000002</v>
       </c>
@@ -1775,6 +2163,9 @@
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D51" s="11">
         <v>51.5</v>
       </c>
@@ -1790,7 +2181,9 @@
       <c r="B52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="D52" s="11">
         <v>51.5</v>
       </c>
@@ -1806,7 +2199,9 @@
       <c r="B53" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="D53" s="11">
         <v>54.56</v>
       </c>
@@ -1822,7 +2217,9 @@
       <c r="B54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="D54" s="11">
         <v>54.56</v>
       </c>
@@ -1838,6 +2235,9 @@
       <c r="B55" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D55" s="11">
         <v>51.5</v>
       </c>
@@ -1853,6 +2253,9 @@
       <c r="B56" s="10" t="s">
         <v>146</v>
       </c>
+      <c r="C56" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D56" s="11">
         <v>42.99</v>
       </c>
@@ -1868,6 +2271,9 @@
       <c r="B57" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="D57" s="11">
         <v>132.22</v>
       </c>
@@ -1883,7 +2289,9 @@
       <c r="B58" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D58" s="11">
         <v>30.61</v>
       </c>
@@ -1899,7 +2307,9 @@
       <c r="B59" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="D59" s="11">
         <v>15.38</v>
       </c>
@@ -1915,7 +2325,9 @@
       <c r="B60" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="D60" s="11">
         <v>29.150000000000002</v>
       </c>
@@ -1931,6 +2343,9 @@
       <c r="B61" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D61" s="11">
         <v>45.6</v>
       </c>
@@ -1946,6 +2361,9 @@
       <c r="B62" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="D62" s="11">
         <v>33.28</v>
       </c>
@@ -1961,6 +2379,9 @@
       <c r="B63" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D63" s="11">
         <v>25.22</v>
       </c>
@@ -1976,6 +2397,9 @@
       <c r="B64" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D64" s="11">
         <v>24.330000000000002</v>
       </c>
@@ -1991,6 +2415,9 @@
       <c r="B65" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D65" s="11">
         <v>22.98</v>
       </c>
@@ -2006,6 +2433,9 @@
       <c r="B66" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="D66" s="11">
         <v>26</v>
       </c>
@@ -2021,6 +2451,9 @@
       <c r="B67" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D67" s="11">
         <v>32.14</v>
       </c>
@@ -2036,6 +2469,9 @@
       <c r="B68" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="C68" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D68" s="11">
         <v>48.21</v>
       </c>
@@ -2051,6 +2487,9 @@
       <c r="B69" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="D69" s="11">
         <v>48.5</v>
       </c>
@@ -2066,6 +2505,9 @@
       <c r="B70" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="D70" s="11">
         <v>48.21</v>
       </c>
@@ -2081,6 +2523,9 @@
       <c r="B71" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="C71" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D71" s="11">
         <v>19.920000000000002</v>
       </c>
@@ -2096,6 +2541,9 @@
       <c r="B72" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="C72" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D72" s="11">
         <v>20.5</v>
       </c>
@@ -2111,6 +2559,9 @@
       <c r="B73" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="D73" s="11">
         <v>22.95</v>
       </c>
@@ -2126,6 +2577,9 @@
       <c r="B74" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="D74" s="11">
         <v>34.049999999999997</v>
       </c>
@@ -2141,6 +2595,9 @@
       <c r="B75" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D75" s="11">
         <v>70</v>
       </c>
@@ -2156,6 +2613,9 @@
       <c r="B76" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D76" s="11">
         <v>67.5</v>
       </c>
@@ -2171,6 +2631,9 @@
       <c r="B77" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D77" s="11">
         <v>57.5</v>
       </c>
@@ -2186,6 +2649,9 @@
       <c r="B78" s="10" t="s">
         <v>167</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="D78" s="11">
         <v>57.5</v>
       </c>
@@ -2201,6 +2667,9 @@
       <c r="B79" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="D79" s="11">
         <v>57.5</v>
       </c>
@@ -2216,6 +2685,9 @@
       <c r="B80" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="D80" s="11">
         <v>57.5</v>
       </c>
@@ -2231,7 +2703,9 @@
       <c r="B81" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D81" s="11">
         <v>57.5</v>
       </c>
@@ -2247,7 +2721,9 @@
       <c r="B82" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D82" s="11">
         <v>53.28</v>
       </c>
@@ -2263,7 +2739,9 @@
       <c r="B83" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="D83" s="11">
         <v>54.32</v>
       </c>
@@ -2279,7 +2757,9 @@
       <c r="B84" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D84" s="11">
         <v>51.49</v>
       </c>
@@ -2295,7 +2775,9 @@
       <c r="B85" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="D85" s="11">
         <v>20.21</v>
       </c>
@@ -2311,7 +2793,9 @@
       <c r="B86" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="5"/>
+      <c r="C86" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D86" s="11">
         <v>20.21</v>
       </c>
@@ -2327,7 +2811,9 @@
       <c r="B87" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="D87" s="11">
         <v>20.21</v>
       </c>
@@ -2343,7 +2829,9 @@
       <c r="B88" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D88" s="11">
         <v>20.21</v>
       </c>
@@ -2359,7 +2847,9 @@
       <c r="B89" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="5"/>
+      <c r="C89" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="D89" s="11">
         <v>22.5</v>
       </c>
